--- a/final_data_pipeline/output/322120_finishing_elec.xlsx
+++ b/final_data_pipeline/output/322120_finishing_elec.xlsx
@@ -777,7 +777,7 @@
         <v>70</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="L2">
         <v>8000</v>
@@ -798,10 +798,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R2">
-        <v>1.800714285714286</v>
+        <v>1.853964204859962</v>
       </c>
       <c r="S2">
-        <v>1.963947368421052</v>
+        <v>2.02833814451736</v>
       </c>
       <c r="T2">
         <v>65.34968273363661</v>
@@ -836,7 +836,7 @@
         <v>98</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="L3">
         <v>8000</v>
@@ -851,10 +851,10 @@
         <v>324496.591543817</v>
       </c>
       <c r="R3">
-        <v>2.983181818181818</v>
+        <v>3.15624931769735</v>
       </c>
       <c r="S3">
-        <v>3.590555555555556</v>
+        <v>3.848474349579903</v>
       </c>
       <c r="T3">
         <v>40.56207394297712</v>
@@ -1013,7 +1013,7 @@
         <v>70</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="L6">
         <v>8000</v>
@@ -1034,10 +1034,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R6">
-        <v>1.800714285714286</v>
+        <v>1.98600466835246</v>
       </c>
       <c r="S6">
-        <v>1.963947368421052</v>
+        <v>2.18975222777657</v>
       </c>
       <c r="T6">
         <v>40.24068376505783</v>
@@ -1072,7 +1072,7 @@
         <v>98</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="L7">
         <v>8000</v>
@@ -1087,10 +1087,10 @@
         <v>199816.8036465878</v>
       </c>
       <c r="R7">
-        <v>2.983181818181818</v>
+        <v>3.629680458828347</v>
       </c>
       <c r="S7">
-        <v>3.590555555555556</v>
+        <v>4.589715938979482</v>
       </c>
       <c r="T7">
         <v>24.97710045582348</v>
@@ -1532,7 +1532,7 @@
         <v>70</v>
       </c>
       <c r="K15">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="L15">
         <v>8000</v>
@@ -1553,10 +1553,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R15">
-        <v>1.800714285714286</v>
+        <v>2.028520339740724</v>
       </c>
       <c r="S15">
-        <v>1.963947368421052</v>
+        <v>2.242263395092639</v>
       </c>
       <c r="T15">
         <v>782.478882437622</v>
@@ -1591,7 +1591,7 @@
         <v>98</v>
       </c>
       <c r="K16">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="L16">
         <v>8000</v>
@@ -1606,10 +1606,10 @@
         <v>3885431.721848753</v>
       </c>
       <c r="R16">
-        <v>2.983181818181818</v>
+        <v>3.797299903567984</v>
       </c>
       <c r="S16">
-        <v>3.590555555555556</v>
+        <v>4.865495608531995</v>
       </c>
       <c r="T16">
         <v>485.6789652310941</v>
@@ -1644,7 +1644,7 @@
         <v>99</v>
       </c>
       <c r="K17">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="L17">
         <v>8000</v>
@@ -1815,7 +1815,7 @@
         <v>70</v>
       </c>
       <c r="K20">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="L20">
         <v>8000</v>
@@ -1836,10 +1836,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R20">
-        <v>1.800714285714286</v>
+        <v>1.897690627758933</v>
       </c>
       <c r="S20">
-        <v>1.963947368421052</v>
+        <v>2.081514384587572</v>
       </c>
       <c r="T20">
         <v>522.7006929793233</v>
@@ -1874,7 +1874,7 @@
         <v>98</v>
       </c>
       <c r="K21">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="L21">
         <v>8000</v>
@@ -1889,10 +1889,10 @@
         <v>2595492.222368174</v>
       </c>
       <c r="R21">
-        <v>2.983181818181818</v>
+        <v>3.305680440257437</v>
       </c>
       <c r="S21">
-        <v>3.590555555555556</v>
+        <v>4.076649924074289</v>
       </c>
       <c r="T21">
         <v>324.4365277960217</v>
@@ -2281,7 +2281,7 @@
         <v>98</v>
       </c>
       <c r="K28">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="L28">
         <v>8000</v>
@@ -2296,10 +2296,10 @@
         <v>1593844.746944168</v>
       </c>
       <c r="R28">
-        <v>2.983181818181818</v>
+        <v>3.126239257907711</v>
       </c>
       <c r="S28">
-        <v>3.590555555555556</v>
+        <v>3.803269267167952</v>
       </c>
       <c r="T28">
         <v>199.2305933680209</v>
@@ -2340,7 +2340,7 @@
         <v>70</v>
       </c>
       <c r="K29">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="L29">
         <v>8000</v>
@@ -2361,10 +2361,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R29">
-        <v>1.800714285714286</v>
+        <v>1.844936767548521</v>
       </c>
       <c r="S29">
-        <v>1.963947368421052</v>
+        <v>2.017393709936214</v>
       </c>
       <c r="T29">
         <v>320.9810249283012</v>
@@ -2405,7 +2405,7 @@
         <v>70</v>
       </c>
       <c r="K30">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="L30">
         <v>8000</v>
@@ -2426,10 +2426,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R30">
-        <v>1.800714285714286</v>
+        <v>1.98600466835246</v>
       </c>
       <c r="S30">
-        <v>1.963947368421052</v>
+        <v>2.18975222777657</v>
       </c>
       <c r="T30">
         <v>89.32581214330291</v>
@@ -2464,7 +2464,7 @@
         <v>98</v>
       </c>
       <c r="K31">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="L31">
         <v>8000</v>
@@ -2479,10 +2479,10 @@
         <v>443551.0681135341</v>
       </c>
       <c r="R31">
-        <v>2.983181818181818</v>
+        <v>3.629680458828347</v>
       </c>
       <c r="S31">
-        <v>3.590555555555556</v>
+        <v>4.589715938979482</v>
       </c>
       <c r="T31">
         <v>55.44388351419176</v>
@@ -2995,7 +2995,7 @@
         <v>70</v>
       </c>
       <c r="K40">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="L40">
         <v>8000</v>
@@ -3016,10 +3016,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R40">
-        <v>1.800714285714286</v>
+        <v>2.015705049109126</v>
       </c>
       <c r="S40">
-        <v>1.963947368421052</v>
+        <v>2.22640738080769</v>
       </c>
       <c r="T40">
         <v>38.40999350881278</v>
@@ -3054,7 +3054,7 @@
         <v>98</v>
       </c>
       <c r="K41">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="L41">
         <v>8000</v>
@@ -3069,10 +3069,10 @@
         <v>190726.4343674386</v>
       </c>
       <c r="R41">
-        <v>2.983181818181818</v>
+        <v>3.745925377867032</v>
       </c>
       <c r="S41">
-        <v>3.590555555555556</v>
+        <v>4.780194493904943</v>
       </c>
       <c r="T41">
         <v>23.84080429592982</v>
@@ -3107,7 +3107,7 @@
         <v>98</v>
       </c>
       <c r="K42">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="L42">
         <v>8000</v>
@@ -3122,10 +3122,10 @@
         <v>831480.195676237</v>
       </c>
       <c r="R42">
-        <v>2.983181818181818</v>
+        <v>3.745925377867032</v>
       </c>
       <c r="S42">
-        <v>3.590555555555556</v>
+        <v>4.780194493904943</v>
       </c>
       <c r="T42">
         <v>103.9350244595296</v>
@@ -3160,7 +3160,7 @@
         <v>99</v>
       </c>
       <c r="K43">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="L43">
         <v>8000</v>
@@ -3213,7 +3213,7 @@
         <v>70</v>
       </c>
       <c r="K44">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="L44">
         <v>8000</v>
@@ -3234,10 +3234,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R44">
-        <v>1.800714285714286</v>
+        <v>2.015705049109126</v>
       </c>
       <c r="S44">
-        <v>1.963947368421052</v>
+        <v>2.22640738080769</v>
       </c>
       <c r="T44">
         <v>167.4500392384153</v>
@@ -3272,7 +3272,7 @@
         <v>98</v>
       </c>
       <c r="K45">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="L45">
         <v>8000</v>
@@ -3287,10 +3287,10 @@
         <v>170312.8540906116</v>
       </c>
       <c r="R45">
-        <v>2.983181818181818</v>
+        <v>3.745925377867032</v>
       </c>
       <c r="S45">
-        <v>3.590555555555556</v>
+        <v>4.780194493904943</v>
       </c>
       <c r="T45">
         <v>21.28910676132645</v>
@@ -3331,7 +3331,7 @@
         <v>70</v>
       </c>
       <c r="K46">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="L46">
         <v>8000</v>
@@ -3352,10 +3352,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R46">
-        <v>1.800714285714286</v>
+        <v>2.015705049109126</v>
       </c>
       <c r="S46">
-        <v>1.963947368421052</v>
+        <v>2.22640738080769</v>
       </c>
       <c r="T46">
         <v>34.2989457218343</v>
@@ -3632,7 +3632,7 @@
         <v>70</v>
       </c>
       <c r="K51">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="L51">
         <v>8000</v>
@@ -3653,10 +3653,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R51">
-        <v>1.800714285714286</v>
+        <v>2.015705049109126</v>
       </c>
       <c r="S51">
-        <v>1.963947368421052</v>
+        <v>2.22640738080769</v>
       </c>
       <c r="T51">
         <v>74.23954900366707</v>
@@ -3691,7 +3691,7 @@
         <v>98</v>
       </c>
       <c r="K52">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="L52">
         <v>8000</v>
@@ -3706,10 +3706,10 @@
         <v>368639.5955070236</v>
       </c>
       <c r="R52">
-        <v>2.983181818181818</v>
+        <v>3.745925377867032</v>
       </c>
       <c r="S52">
-        <v>3.590555555555556</v>
+        <v>4.780194493904943</v>
       </c>
       <c r="T52">
         <v>46.07994943837795</v>
@@ -4566,7 +4566,7 @@
         <v>98</v>
       </c>
       <c r="K68">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="L68">
         <v>8000</v>
@@ -4581,10 +4581,10 @@
         <v>300734.3812458746</v>
       </c>
       <c r="R68">
-        <v>2.983181818181818</v>
+        <v>3.33095021773865</v>
       </c>
       <c r="S68">
-        <v>3.590555555555556</v>
+        <v>4.115751405322535</v>
       </c>
       <c r="T68">
         <v>37.59179765573433</v>
@@ -4625,7 +4625,7 @@
         <v>70</v>
       </c>
       <c r="K69">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="L69">
         <v>8000</v>
@@ -4646,10 +4646,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R69">
-        <v>1.800714285714286</v>
+        <v>1.904889690449167</v>
       </c>
       <c r="S69">
-        <v>1.963947368421052</v>
+        <v>2.090295475371289</v>
       </c>
       <c r="T69">
         <v>60.56426142417795</v>
@@ -5203,7 +5203,7 @@
         <v>98</v>
       </c>
       <c r="K79">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="L79">
         <v>8000</v>
@@ -5218,10 +5218,10 @@
         <v>621608.4384237382</v>
       </c>
       <c r="R79">
-        <v>2.983181818181818</v>
+        <v>3.305680440257437</v>
       </c>
       <c r="S79">
-        <v>3.590555555555556</v>
+        <v>4.076649924074289</v>
       </c>
       <c r="T79">
         <v>77.70105480296728</v>
@@ -5262,7 +5262,7 @@
         <v>70</v>
       </c>
       <c r="K80">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="L80">
         <v>8000</v>
@@ -5283,10 +5283,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R80">
-        <v>1.800714285714286</v>
+        <v>1.897690627758933</v>
       </c>
       <c r="S80">
-        <v>1.963947368421052</v>
+        <v>2.081514384587572</v>
       </c>
       <c r="T80">
         <v>125.184409618236</v>
@@ -5321,7 +5321,7 @@
         <v>98</v>
       </c>
       <c r="K81">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="L81">
         <v>8000</v>
@@ -5336,10 +5336,10 @@
         <v>698050.8355855416</v>
       </c>
       <c r="R81">
-        <v>2.983181818181818</v>
+        <v>2.66307484220018</v>
       </c>
       <c r="S81">
-        <v>3.590555555555556</v>
+        <v>3.130624327233584</v>
       </c>
       <c r="T81">
         <v>87.2563544481927</v>
@@ -5380,7 +5380,7 @@
         <v>70</v>
       </c>
       <c r="K82">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="L82">
         <v>8000</v>
@@ -5401,10 +5401,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R82">
-        <v>1.800714285714286</v>
+        <v>1.694051767048283</v>
       </c>
       <c r="S82">
-        <v>1.963947368421052</v>
+        <v>1.836167304537999</v>
       </c>
       <c r="T82">
         <v>140.578982418388</v>
@@ -5439,7 +5439,7 @@
         <v>98</v>
       </c>
       <c r="K83">
-        <v>10</v>
+        <v>2.356481481481501</v>
       </c>
       <c r="L83">
         <v>8000</v>
@@ -5454,10 +5454,10 @@
         <v>802117.9414711507</v>
       </c>
       <c r="R83">
-        <v>2.983181818181818</v>
+        <v>2.619185573867416</v>
       </c>
       <c r="S83">
-        <v>3.590555555555556</v>
+        <v>3.069228739776626</v>
       </c>
       <c r="T83">
         <v>100.2647426838938</v>
@@ -5498,7 +5498,7 @@
         <v>70</v>
       </c>
       <c r="K84">
-        <v>10</v>
+        <v>2.356481481481501</v>
       </c>
       <c r="L84">
         <v>8000</v>
@@ -5519,10 +5519,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R84">
-        <v>1.800714285714286</v>
+        <v>1.678525338046114</v>
       </c>
       <c r="S84">
-        <v>1.963947368421052</v>
+        <v>1.817698795724144</v>
       </c>
       <c r="T84">
         <v>161.5368369224283</v>
@@ -6385,7 +6385,7 @@
         <v>70</v>
       </c>
       <c r="K100">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="L100">
         <v>8000</v>
@@ -6406,10 +6406,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R100">
-        <v>1.800714285714286</v>
+        <v>1.853964204859962</v>
       </c>
       <c r="S100">
-        <v>1.963947368421052</v>
+        <v>2.02833814451736</v>
       </c>
       <c r="T100">
         <v>177.4844551507544</v>
@@ -6444,7 +6444,7 @@
         <v>98</v>
       </c>
       <c r="K101">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="L101">
         <v>8000</v>
@@ -6459,10 +6459,10 @@
         <v>881306.5089111304</v>
       </c>
       <c r="R101">
-        <v>2.983181818181818</v>
+        <v>3.15624931769735</v>
       </c>
       <c r="S101">
-        <v>3.590555555555556</v>
+        <v>3.848474349579903</v>
       </c>
       <c r="T101">
         <v>110.1633136138913</v>
@@ -6503,7 +6503,7 @@
         <v>70</v>
       </c>
       <c r="K102">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="L102">
         <v>8000</v>
@@ -6524,10 +6524,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R102">
-        <v>1.800714285714286</v>
+        <v>1.967443877059447</v>
       </c>
       <c r="S102">
-        <v>1.963947368421052</v>
+        <v>2.16691042047532</v>
       </c>
       <c r="T102">
         <v>36.72486535061906</v>
@@ -6562,7 +6562,7 @@
         <v>98</v>
       </c>
       <c r="K103">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="L103">
         <v>8000</v>
@@ -6577,10 +6577,10 @@
         <v>182358.859793631</v>
       </c>
       <c r="R103">
-        <v>2.983181818181818</v>
+        <v>3.558967664189598</v>
       </c>
       <c r="S103">
-        <v>3.590555555555556</v>
+        <v>4.475532187740448</v>
       </c>
       <c r="T103">
         <v>22.79485747420388</v>
@@ -6615,7 +6615,7 @@
         <v>100</v>
       </c>
       <c r="K104">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="L104">
         <v>8000</v>
@@ -6662,7 +6662,7 @@
         <v>100</v>
       </c>
       <c r="K105">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="L105">
         <v>8000</v>
@@ -6709,7 +6709,7 @@
         <v>100</v>
       </c>
       <c r="K106">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="L106">
         <v>8000</v>
@@ -6762,7 +6762,7 @@
         <v>70</v>
       </c>
       <c r="K107">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="L107">
         <v>8000</v>
@@ -6783,10 +6783,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R107">
-        <v>1.800714285714286</v>
+        <v>1.975772235794973</v>
       </c>
       <c r="S107">
-        <v>1.963947368421052</v>
+        <v>2.177153507468733</v>
       </c>
       <c r="T107">
         <v>12.13327460522697</v>
@@ -6821,7 +6821,7 @@
         <v>98</v>
       </c>
       <c r="K108">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="L108">
         <v>8000</v>
@@ -6836,10 +6836,10 @@
         <v>60248.2841379543</v>
       </c>
       <c r="R108">
-        <v>2.983181818181818</v>
+        <v>3.590517197710347</v>
       </c>
       <c r="S108">
-        <v>3.590555555555556</v>
+        <v>4.526321250243172</v>
       </c>
       <c r="T108">
         <v>7.531035517244287</v>
@@ -7116,7 +7116,7 @@
         <v>70</v>
       </c>
       <c r="K113">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="L113">
         <v>8000</v>
@@ -7137,10 +7137,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R113">
-        <v>1.800714285714286</v>
+        <v>1.867546171126113</v>
       </c>
       <c r="S113">
-        <v>1.963947368421052</v>
+        <v>2.044826120875009</v>
       </c>
       <c r="T113">
         <v>27.27192947692492</v>
@@ -7175,7 +7175,7 @@
         <v>98</v>
       </c>
       <c r="K114">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="L114">
         <v>8000</v>
@@ -7190,10 +7190,10 @@
         <v>135419.9100882616</v>
       </c>
       <c r="R114">
-        <v>2.983181818181818</v>
+        <v>3.201933436480062</v>
       </c>
       <c r="S114">
-        <v>3.590555555555556</v>
+        <v>3.917684201664166</v>
       </c>
       <c r="T114">
         <v>16.92748876103269</v>
@@ -7234,7 +7234,7 @@
         <v>70</v>
       </c>
       <c r="K115">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="L115">
         <v>8000</v>
@@ -7255,10 +7255,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R115">
-        <v>1.800714285714286</v>
+        <v>1.867772014163364</v>
       </c>
       <c r="S115">
-        <v>1.963947368421052</v>
+        <v>2.045100507661769</v>
       </c>
       <c r="T115">
         <v>123.8923900084919</v>
@@ -7293,7 +7293,7 @@
         <v>98</v>
       </c>
       <c r="K116">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="L116">
         <v>8000</v>
@@ -7308,10 +7308,10 @@
         <v>615192.8608412333</v>
       </c>
       <c r="R116">
-        <v>2.983181818181818</v>
+        <v>3.202698560003336</v>
       </c>
       <c r="S116">
-        <v>3.590555555555556</v>
+        <v>3.918847414586112</v>
       </c>
       <c r="T116">
         <v>76.89910760515416</v>
@@ -7588,7 +7588,7 @@
         <v>70</v>
       </c>
       <c r="K121">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="L121">
         <v>8000</v>
@@ -7609,10 +7609,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R121">
-        <v>1.800714285714286</v>
+        <v>1.618523362263702</v>
       </c>
       <c r="S121">
-        <v>1.963947368421052</v>
+        <v>1.746638928617865</v>
       </c>
       <c r="T121">
         <v>128.9067782888915</v>
@@ -7647,7 +7647,7 @@
         <v>98</v>
       </c>
       <c r="K122">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="L122">
         <v>8000</v>
@@ -7662,10 +7662,10 @@
         <v>640092.016240337</v>
       </c>
       <c r="R122">
-        <v>2.983181818181818</v>
+        <v>2.455497817501559</v>
       </c>
       <c r="S122">
-        <v>3.590555555555556</v>
+        <v>2.843656807626497</v>
       </c>
       <c r="T122">
         <v>80.01150203004214</v>
@@ -8036,7 +8036,7 @@
         <v>70</v>
       </c>
       <c r="K129">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="L129">
         <v>8000</v>
@@ -8057,10 +8057,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R129">
-        <v>1.800714285714286</v>
+        <v>2.015705049109126</v>
       </c>
       <c r="S129">
-        <v>1.963947368421052</v>
+        <v>2.22640738080769</v>
       </c>
       <c r="T129">
         <v>23.24125114575322</v>
@@ -8095,7 +8095,7 @@
         <v>98</v>
       </c>
       <c r="K130">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="L130">
         <v>8000</v>
@@ -8110,10 +8110,10 @@
         <v>115405.4077163699</v>
       </c>
       <c r="R130">
-        <v>2.983181818181818</v>
+        <v>3.745925377867032</v>
       </c>
       <c r="S130">
-        <v>3.590555555555556</v>
+        <v>4.780194493904943</v>
       </c>
       <c r="T130">
         <v>14.42567596454623</v>
